--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1443,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1478,28 +1490,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1536,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2009,10 +2021,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2056,28 +2068,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2102,28 +2114,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2587,10 +2599,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2634,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2680,28 +2692,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2934,10 +2946,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2981,28 +2993,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3027,28 +3039,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3136,10 +3148,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3183,28 +3195,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3229,28 +3241,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3437,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3472,28 +3484,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3530,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4015,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4062,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4108,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4263,10 +4275,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4310,28 +4322,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4356,28 +4368,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4552,10 +4564,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4599,28 +4611,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4645,28 +4657,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4812,10 +4824,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4859,28 +4871,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4905,28 +4917,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5072,10 +5084,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5119,28 +5131,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5165,28 +5177,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5332,10 +5344,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5379,28 +5391,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5425,28 +5437,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5563,10 +5575,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5610,28 +5622,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5656,28 +5668,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5823,10 +5835,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5870,28 +5882,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5916,28 +5928,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6025,10 +6037,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6072,28 +6084,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6118,28 +6130,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6239,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
